--- a/data.xlsx
+++ b/data.xlsx
@@ -4,15 +4,16 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr showInkAnnotation="0" hidePivotFieldList="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="8820" yWindow="5520" windowWidth="25600" windowHeight="19020" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="construction-pivot" sheetId="2" r:id="rId1"/>
     <sheet name="constructions" sheetId="1" r:id="rId2"/>
+    <sheet name="ground temperature" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="58">
   <si>
     <t>Construction</t>
   </si>
@@ -188,6 +189,15 @@
   </si>
   <si>
     <t>Values</t>
+  </si>
+  <si>
+    <t>OS:Site:GroundTemperature:BuildingSurface,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  {53760060-7d77-11e4-b4a9-0800200c9a66}, !- Handle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  19.195,19.191,19.215,19.250,19.367,20.429,21.511,21.776,20.440,19.538,19.333,19.237;</t>
   </si>
 </sst>
 </file>
@@ -703,7 +713,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
   <location ref="A3:C9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField showAll="0">
@@ -1137,7 +1147,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:C9"/>
     </sheetView>
   </sheetViews>
@@ -2256,4 +2266,39 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="70">
   <si>
     <t>Construction</t>
   </si>
@@ -197,7 +197,43 @@
     <t xml:space="preserve">  {53760060-7d77-11e4-b4a9-0800200c9a66}, !- Handle</t>
   </si>
   <si>
-    <t xml:space="preserve">  19.195,19.191,19.215,19.250,19.367,20.429,21.511,21.776,20.440,19.538,19.333,19.237;</t>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>Feb</t>
+  </si>
+  <si>
+    <t>Mar</t>
+  </si>
+  <si>
+    <t>Apr</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>Jun</t>
+  </si>
+  <si>
+    <t>Jul</t>
+  </si>
+  <si>
+    <t>Aug</t>
+  </si>
+  <si>
+    <t>Sep</t>
+  </si>
+  <si>
+    <t>Oct</t>
+  </si>
+  <si>
+    <t>Nov</t>
+  </si>
+  <si>
+    <t>Dec</t>
+  </si>
+  <si>
+    <t>degC</t>
   </si>
 </sst>
 </file>
@@ -251,8 +287,32 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -269,18 +329,296 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="31">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Ground Temperatures</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'ground temperature'!$A$4:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Apr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jun</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Jul</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Aug</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sep</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Oct</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Nov</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Dec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ground temperature'!$B$4:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>19.195</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.191</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.215</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19.367</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20.429</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21.511</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21.776</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20.44</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19.538</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>19.333</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19.237</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2127165432"/>
+        <c:axId val="-2127162344"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2127165432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2127162344"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2127162344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>deg</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> C</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2127165432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2270,31 +2608,129 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
+    <row r="3" spans="1:2">
+      <c r="B3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
         <v>57</v>
+      </c>
+      <c r="B4">
+        <v>19.195</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5">
+        <v>19.190999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6">
+        <v>19.215</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7">
+        <v>19.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8">
+        <v>19.367000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9">
+        <v>20.428999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10">
+        <v>21.510999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11">
+        <v>21.776</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12">
+        <v>20.440000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13">
+        <v>19.538</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14">
+        <v>19.332999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15">
+        <v>19.236999999999998</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -4,16 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr showInkAnnotation="0" hidePivotFieldList="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="8820" yWindow="5520" windowWidth="25600" windowHeight="19020" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="11820" yWindow="5460" windowWidth="31460" windowHeight="20540" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="construction-pivot" sheetId="2" r:id="rId1"/>
     <sheet name="constructions" sheetId="1" r:id="rId2"/>
     <sheet name="ground temperature" sheetId="3" r:id="rId3"/>
+    <sheet name="basecase" sheetId="4" r:id="rId4"/>
+    <sheet name="comparison" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="136">
   <si>
     <t>Construction</t>
   </si>
@@ -234,13 +236,232 @@
   </si>
   <si>
     <t>degC</t>
+  </si>
+  <si>
+    <t>Trombe Wall</t>
+  </si>
+  <si>
+    <t>Dencity</t>
+  </si>
+  <si>
+    <t>lb/ft3</t>
+  </si>
+  <si>
+    <t>Thickness</t>
+  </si>
+  <si>
+    <t>inches</t>
+  </si>
+  <si>
+    <t>Thermal Absorptance</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>Conductivity</t>
+  </si>
+  <si>
+    <t>Btu-in/ft2hR</t>
+  </si>
+  <si>
+    <t>Total Energy [GJ]</t>
+  </si>
+  <si>
+    <t>Energy Per Total Building Area [MJ/m2]</t>
+  </si>
+  <si>
+    <t>Energy Per Conditioned Building Area [MJ/m2]</t>
+  </si>
+  <si>
+    <t>Total Site Energy</t>
+  </si>
+  <si>
+    <t>Net Site Energy</t>
+  </si>
+  <si>
+    <t>Total Source Energy</t>
+  </si>
+  <si>
+    <t>Net Source Energy</t>
+  </si>
+  <si>
+    <t>End Uses</t>
+  </si>
+  <si>
+    <t>Electricity [GJ]</t>
+  </si>
+  <si>
+    <t>Natural Gas [GJ]</t>
+  </si>
+  <si>
+    <t>Additional Fuel [GJ]</t>
+  </si>
+  <si>
+    <t>District Cooling [GJ]</t>
+  </si>
+  <si>
+    <t>District Heating [GJ]</t>
+  </si>
+  <si>
+    <t>Water [m3]</t>
+  </si>
+  <si>
+    <t>Heating</t>
+  </si>
+  <si>
+    <t>Cooling</t>
+  </si>
+  <si>
+    <t>Interior Lighting</t>
+  </si>
+  <si>
+    <t>Exterior Lighting</t>
+  </si>
+  <si>
+    <t>Interior Equipment</t>
+  </si>
+  <si>
+    <t>Exterior Equipment</t>
+  </si>
+  <si>
+    <t>Fans</t>
+  </si>
+  <si>
+    <t>Pumps</t>
+  </si>
+  <si>
+    <t>Heat Rejection</t>
+  </si>
+  <si>
+    <t>Humidification</t>
+  </si>
+  <si>
+    <t>Heat Recovery</t>
+  </si>
+  <si>
+    <t>Water Systems</t>
+  </si>
+  <si>
+    <t>Refrigeration</t>
+  </si>
+  <si>
+    <t>Generators</t>
+  </si>
+  <si>
+    <t>Total End Uses</t>
+  </si>
+  <si>
+    <r>
+      <t>Note: Electricity appears to be the principal heating source based on energy usage.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Window-Wall Ratio</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>North (315 to 45 deg)</t>
+  </si>
+  <si>
+    <t>East (45 to 135 deg)</t>
+  </si>
+  <si>
+    <t>South (135 to 225 deg)</t>
+  </si>
+  <si>
+    <t>West (225 to 315 deg)</t>
+  </si>
+  <si>
+    <t>Gross Wall Area [m2]</t>
+  </si>
+  <si>
+    <t>Above Ground Wall Area [m2]</t>
+  </si>
+  <si>
+    <t>Window Opening Area [m2]</t>
+  </si>
+  <si>
+    <t>Gross Window-Wall Ratio [%]</t>
+  </si>
+  <si>
+    <t>Above Ground Window-Wall Ratio [%]</t>
+  </si>
+  <si>
+    <t>Window-to-Wall Ratio</t>
+  </si>
+  <si>
+    <t>North</t>
+  </si>
+  <si>
+    <t>East</t>
+  </si>
+  <si>
+    <t>South</t>
+  </si>
+  <si>
+    <t>West</t>
+  </si>
+  <si>
+    <t>Radiant and Cooling Tower</t>
+  </si>
+  <si>
+    <t>17-naming</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>18-reference-case</t>
+  </si>
+  <si>
+    <t>PV Production</t>
+  </si>
+  <si>
+    <t>Base Case</t>
+  </si>
+  <si>
+    <t>Improved Envelope</t>
+  </si>
+  <si>
+    <t>As Designed</t>
+  </si>
+  <si>
+    <t>PV</t>
+  </si>
+  <si>
+    <t>PV Produced</t>
+  </si>
+  <si>
+    <t>22MWh = 1.8MWh/month</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="171" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -269,6 +490,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Times"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Times"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -278,7 +511,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -286,50 +519,189 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="31">
+  <cellStyleXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="2" fillId="0" borderId="0" xfId="31" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="31" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="31">
+  <cellStyles count="128">
+    <cellStyle name="Comma" xfId="31" builtinId="3"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -345,6 +717,54 @@
     <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="89" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="91" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="93" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="95" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="97" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="99" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="101" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="103" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="105" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="107" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="109" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="111" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="113" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="115" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="117" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="119" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="121" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="123" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="125" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="127" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -360,6 +780,54 @@
     <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="32" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="34" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="36" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="38" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="40" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="44" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="46" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="50" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="52" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="54" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="56" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="58" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="60" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="62" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="64" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="66" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="68" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="70" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="72" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="74" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="76" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="78" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="80" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="82" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="84" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="86" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="88" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="90" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="92" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="94" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="96" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="98" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="100" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="102" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="104" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="106" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="108" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="110" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="112" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="114" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="116" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="118" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="120" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="122" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="124" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="126" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -513,11 +981,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2127165432"/>
-        <c:axId val="-2127162344"/>
+        <c:axId val="2140959720"/>
+        <c:axId val="2140962760"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2127165432"/>
+        <c:axId val="2140959720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -526,7 +994,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2127162344"/>
+        <c:crossAx val="2140962760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -534,7 +1002,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2127162344"/>
+        <c:axId val="2140962760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -569,11 +1037,656 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2127165432"/>
+        <c:crossAx val="2140959720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>comparison!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cooling</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>comparison!$C$21:$G$21</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Base Case</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Radiant and Cooling Tower</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Improved Envelope</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>As Designed</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>PV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>comparison!$C$22:$G$22</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2549.9286</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27.777</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36.1101</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24.9993</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24.9993</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>comparison!$B$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Heating</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>comparison!$C$21:$G$21</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Base Case</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Radiant and Cooling Tower</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Improved Envelope</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>As Designed</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>PV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>comparison!$C$23:$G$23</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>13705.51718</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12430.52075</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4766.65332</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7016.64702</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7016.64702</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>comparison!$B$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Interior Lighting</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>comparison!$C$21:$G$21</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Base Case</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Radiant and Cooling Tower</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Improved Envelope</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>As Designed</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>PV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>comparison!$C$24:$G$24</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8005.53314</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8005.53314</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7988.86652</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3022.21376</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3022.21376</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>comparison!$B$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Exterior Lighting</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>comparison!$C$21:$G$21</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Base Case</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Radiant and Cooling Tower</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Improved Envelope</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>As Designed</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>PV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>comparison!$C$25:$G$25</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>comparison!$B$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Interior Equipment</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>comparison!$C$21:$G$21</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Base Case</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Radiant and Cooling Tower</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Improved Envelope</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>As Designed</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>PV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>comparison!$C$26:$G$26</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4977.763840000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4977.763840000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4977.763840000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2488.88192</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2488.88192</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>comparison!$B$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Exterior Equipment</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>comparison!$C$21:$G$21</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Base Case</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Radiant and Cooling Tower</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Improved Envelope</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>As Designed</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>PV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>comparison!$C$27:$G$27</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>comparison!$B$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fans</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>comparison!$C$21:$G$21</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Base Case</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Radiant and Cooling Tower</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Improved Envelope</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>As Designed</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>PV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>comparison!$C$28:$G$28</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>574.99839</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.33331</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.33331</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.55554</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.55554</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>comparison!$B$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pumps</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>comparison!$C$21:$G$21</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Base Case</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Radiant and Cooling Tower</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Improved Envelope</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>As Designed</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>PV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>comparison!$C$29:$G$29</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72.22202</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27.7777</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44.44432</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44.44432</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:v>PV</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>comparison!$C$38:$G$38</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-22524.93693</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="-2147082872"/>
+        <c:axId val="-2147481576"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2147082872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2147481576"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2147481576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Annual</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Energy (kWh)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2147082872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -600,6 +1713,41 @@
       <xdr:colOff>406400</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1588,10 +2736,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I36"/>
+  <dimension ref="A2:I46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:I36"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2596,8 +3744,58 @@
         <v>0</v>
       </c>
     </row>
+    <row r="42" spans="1:9">
+      <c r="A42" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" t="s">
+        <v>71</v>
+      </c>
+      <c r="B43">
+        <v>150</v>
+      </c>
+      <c r="C43" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" t="s">
+        <v>73</v>
+      </c>
+      <c r="B44">
+        <v>8</v>
+      </c>
+      <c r="C44" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" t="s">
+        <v>75</v>
+      </c>
+      <c r="B45">
+        <v>95</v>
+      </c>
+      <c r="C45" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" t="s">
+        <v>77</v>
+      </c>
+      <c r="B46">
+        <v>12</v>
+      </c>
+      <c r="C46" t="s">
+        <v>78</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2610,7 +3808,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -2725,6 +3923,1905 @@
       </c>
       <c r="B15">
         <v>19.236999999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G46"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:B26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="105">
+      <c r="A1" s="5"/>
+      <c r="B1" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="30">
+      <c r="A2" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="6">
+        <v>107.34</v>
+      </c>
+      <c r="C2" s="6">
+        <v>413.85</v>
+      </c>
+      <c r="D2" s="6">
+        <v>481.48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="30">
+      <c r="A3" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="6">
+        <v>30.94</v>
+      </c>
+      <c r="C3" s="6">
+        <v>119.3</v>
+      </c>
+      <c r="D3" s="6">
+        <v>138.80000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="45">
+      <c r="A4" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" s="6">
+        <v>339.93</v>
+      </c>
+      <c r="C4" s="6">
+        <v>1310.67</v>
+      </c>
+      <c r="D4" s="6">
+        <v>1524.86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="45">
+      <c r="A5" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" s="6">
+        <v>97.99</v>
+      </c>
+      <c r="C5" s="6">
+        <v>377.83</v>
+      </c>
+      <c r="D5" s="6">
+        <v>439.57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="7"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" ht="45">
+      <c r="A10" s="5"/>
+      <c r="B10" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B11" s="6">
+        <v>49.34</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0</v>
+      </c>
+      <c r="G11" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B12" s="6">
+        <v>9.18</v>
+      </c>
+      <c r="C12" s="6">
+        <v>0</v>
+      </c>
+      <c r="D12" s="6">
+        <v>0</v>
+      </c>
+      <c r="E12" s="6">
+        <v>0</v>
+      </c>
+      <c r="F12" s="6">
+        <v>0</v>
+      </c>
+      <c r="G12" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="30">
+      <c r="A13" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B13" s="6">
+        <v>28.82</v>
+      </c>
+      <c r="C13" s="6">
+        <v>0</v>
+      </c>
+      <c r="D13" s="6">
+        <v>0</v>
+      </c>
+      <c r="E13" s="6">
+        <v>0</v>
+      </c>
+      <c r="F13" s="6">
+        <v>0</v>
+      </c>
+      <c r="G13" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="30">
+      <c r="A14" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B14" s="6">
+        <v>0</v>
+      </c>
+      <c r="C14" s="6">
+        <v>0</v>
+      </c>
+      <c r="D14" s="6">
+        <v>0</v>
+      </c>
+      <c r="E14" s="6">
+        <v>0</v>
+      </c>
+      <c r="F14" s="6">
+        <v>0</v>
+      </c>
+      <c r="G14" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="45">
+      <c r="A15" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B15" s="6">
+        <v>17.920000000000002</v>
+      </c>
+      <c r="C15" s="6">
+        <v>0</v>
+      </c>
+      <c r="D15" s="6">
+        <v>0</v>
+      </c>
+      <c r="E15" s="6">
+        <v>0</v>
+      </c>
+      <c r="F15" s="6">
+        <v>0</v>
+      </c>
+      <c r="G15" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="45">
+      <c r="A16" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B16" s="6">
+        <v>0</v>
+      </c>
+      <c r="C16" s="6">
+        <v>0</v>
+      </c>
+      <c r="D16" s="6">
+        <v>0</v>
+      </c>
+      <c r="E16" s="6">
+        <v>0</v>
+      </c>
+      <c r="F16" s="6">
+        <v>0</v>
+      </c>
+      <c r="G16" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B17" s="6">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="C17" s="6">
+        <v>0</v>
+      </c>
+      <c r="D17" s="6">
+        <v>0</v>
+      </c>
+      <c r="E17" s="6">
+        <v>0</v>
+      </c>
+      <c r="F17" s="6">
+        <v>0</v>
+      </c>
+      <c r="G17" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B18" s="6">
+        <v>0</v>
+      </c>
+      <c r="C18" s="6">
+        <v>0</v>
+      </c>
+      <c r="D18" s="6">
+        <v>0</v>
+      </c>
+      <c r="E18" s="6">
+        <v>0</v>
+      </c>
+      <c r="F18" s="6">
+        <v>0</v>
+      </c>
+      <c r="G18" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="30">
+      <c r="A19" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B19" s="6">
+        <v>0</v>
+      </c>
+      <c r="C19" s="6">
+        <v>0</v>
+      </c>
+      <c r="D19" s="6">
+        <v>0</v>
+      </c>
+      <c r="E19" s="6">
+        <v>0</v>
+      </c>
+      <c r="F19" s="6">
+        <v>0</v>
+      </c>
+      <c r="G19" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="30">
+      <c r="A20" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B20" s="6">
+        <v>0</v>
+      </c>
+      <c r="C20" s="6">
+        <v>0</v>
+      </c>
+      <c r="D20" s="6">
+        <v>0</v>
+      </c>
+      <c r="E20" s="6">
+        <v>0</v>
+      </c>
+      <c r="F20" s="6">
+        <v>0</v>
+      </c>
+      <c r="G20" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="30">
+      <c r="A21" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B21" s="6">
+        <v>0</v>
+      </c>
+      <c r="C21" s="6">
+        <v>0</v>
+      </c>
+      <c r="D21" s="6">
+        <v>0</v>
+      </c>
+      <c r="E21" s="6">
+        <v>0</v>
+      </c>
+      <c r="F21" s="6">
+        <v>0</v>
+      </c>
+      <c r="G21" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="30">
+      <c r="A22" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B22" s="6">
+        <v>0</v>
+      </c>
+      <c r="C22" s="6">
+        <v>0</v>
+      </c>
+      <c r="D22" s="6">
+        <v>0</v>
+      </c>
+      <c r="E22" s="6">
+        <v>0</v>
+      </c>
+      <c r="F22" s="6">
+        <v>0</v>
+      </c>
+      <c r="G22" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="30">
+      <c r="A23" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B23" s="6">
+        <v>0</v>
+      </c>
+      <c r="C23" s="6">
+        <v>0</v>
+      </c>
+      <c r="D23" s="6">
+        <v>0</v>
+      </c>
+      <c r="E23" s="6">
+        <v>0</v>
+      </c>
+      <c r="F23" s="6">
+        <v>0</v>
+      </c>
+      <c r="G23" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="30">
+      <c r="A24" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B24" s="6">
+        <v>0</v>
+      </c>
+      <c r="C24" s="6">
+        <v>0</v>
+      </c>
+      <c r="D24" s="6">
+        <v>0</v>
+      </c>
+      <c r="E24" s="6">
+        <v>0</v>
+      </c>
+      <c r="F24" s="6">
+        <v>0</v>
+      </c>
+      <c r="G24" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+    </row>
+    <row r="26" spans="1:7" ht="30">
+      <c r="A26" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B26" s="6">
+        <v>107.34</v>
+      </c>
+      <c r="C26" s="6">
+        <v>0</v>
+      </c>
+      <c r="D26" s="6">
+        <v>0</v>
+      </c>
+      <c r="E26" s="6">
+        <v>0</v>
+      </c>
+      <c r="F26" s="6">
+        <v>0</v>
+      </c>
+      <c r="G26" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="1"/>
+    </row>
+    <row r="34" spans="1:6" ht="45">
+      <c r="A34" s="5"/>
+      <c r="B34" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="45">
+      <c r="A35" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B35" s="6">
+        <v>463.1</v>
+      </c>
+      <c r="C35" s="6">
+        <v>156.52000000000001</v>
+      </c>
+      <c r="D35" s="6">
+        <v>108.93</v>
+      </c>
+      <c r="E35" s="6">
+        <v>92.47</v>
+      </c>
+      <c r="F35" s="6">
+        <v>105.18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="60">
+      <c r="A36" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B36" s="6">
+        <v>463.1</v>
+      </c>
+      <c r="C36" s="6">
+        <v>156.52000000000001</v>
+      </c>
+      <c r="D36" s="6">
+        <v>108.93</v>
+      </c>
+      <c r="E36" s="6">
+        <v>92.47</v>
+      </c>
+      <c r="F36" s="6">
+        <v>105.18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="45">
+      <c r="A37" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B37" s="6">
+        <v>71.83</v>
+      </c>
+      <c r="C37" s="6">
+        <v>23.01</v>
+      </c>
+      <c r="D37" s="6">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="E37" s="6">
+        <v>20.74</v>
+      </c>
+      <c r="F37" s="6">
+        <v>8.48</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="60">
+      <c r="A38" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B38" s="6">
+        <v>15.51</v>
+      </c>
+      <c r="C38" s="6">
+        <v>14.7</v>
+      </c>
+      <c r="D38" s="6">
+        <v>18</v>
+      </c>
+      <c r="E38" s="6">
+        <v>22.43</v>
+      </c>
+      <c r="F38" s="6">
+        <v>8.06</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="75">
+      <c r="A39" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B39" s="6">
+        <v>15.51</v>
+      </c>
+      <c r="C39" s="6">
+        <v>14.7</v>
+      </c>
+      <c r="D39" s="6">
+        <v>18</v>
+      </c>
+      <c r="E39" s="6">
+        <v>22.43</v>
+      </c>
+      <c r="F39" s="6">
+        <v>8.06</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="B41" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="B42" t="s">
+        <v>121</v>
+      </c>
+      <c r="C42">
+        <f>C39</f>
+        <v>14.7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="B43" t="s">
+        <v>122</v>
+      </c>
+      <c r="C43">
+        <f>D39</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="B44" t="s">
+        <v>123</v>
+      </c>
+      <c r="C44">
+        <f>E39</f>
+        <v>22.43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="B45" t="s">
+        <v>124</v>
+      </c>
+      <c r="C45">
+        <f>F39</f>
+        <v>8.06</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="B46" t="s">
+        <v>110</v>
+      </c>
+      <c r="C46">
+        <f>B39</f>
+        <v>15.51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:J64"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10">
+      <c r="C1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="2:10" ht="30">
+      <c r="B2" s="5"/>
+      <c r="C2" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="G2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10">
+      <c r="B3" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="6">
+        <v>49.34</v>
+      </c>
+      <c r="D3" s="1">
+        <v>44.75</v>
+      </c>
+      <c r="E3" s="6">
+        <v>17.16</v>
+      </c>
+      <c r="F3" s="6">
+        <v>25.26</v>
+      </c>
+      <c r="G3" s="6">
+        <v>25.26</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10">
+      <c r="B4" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="6">
+        <v>9.18</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0.13</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0.09</v>
+      </c>
+      <c r="G4" s="9">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10">
+      <c r="B5" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" s="6">
+        <v>28.82</v>
+      </c>
+      <c r="D5" s="1">
+        <v>28.82</v>
+      </c>
+      <c r="E5" s="6">
+        <v>28.76</v>
+      </c>
+      <c r="F5" s="6">
+        <v>10.88</v>
+      </c>
+      <c r="G5" s="9">
+        <v>10.88</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10">
+      <c r="B6" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0</v>
+      </c>
+      <c r="G6" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="B7" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" s="6">
+        <v>17.920000000000002</v>
+      </c>
+      <c r="D7" s="1">
+        <v>17.920000000000002</v>
+      </c>
+      <c r="E7" s="6">
+        <v>17.920000000000002</v>
+      </c>
+      <c r="F7" s="6">
+        <v>8.9600000000000009</v>
+      </c>
+      <c r="G7" s="9">
+        <v>8.9600000000000009</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="B8" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0</v>
+      </c>
+      <c r="G8" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="B9" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" s="6">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0.03</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="G9" s="9">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.26</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0.16</v>
+      </c>
+      <c r="G10" s="9">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="B11" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0</v>
+      </c>
+      <c r="G11" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="B12" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" s="6">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="6">
+        <v>0</v>
+      </c>
+      <c r="F12" s="6">
+        <v>0</v>
+      </c>
+      <c r="G12" s="9">
+        <v>0</v>
+      </c>
+      <c r="J12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10">
+      <c r="B13" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C13" s="6">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" s="6">
+        <v>0</v>
+      </c>
+      <c r="F13" s="6">
+        <v>0</v>
+      </c>
+      <c r="G13" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10">
+      <c r="B14" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C14" s="6">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" s="6">
+        <v>0</v>
+      </c>
+      <c r="F14" s="6">
+        <v>0</v>
+      </c>
+      <c r="G14" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10">
+      <c r="B15" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C15" s="6">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" s="6">
+        <v>0</v>
+      </c>
+      <c r="F15" s="6">
+        <v>0</v>
+      </c>
+      <c r="G15" s="9">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="2:10">
+      <c r="B16" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C16" s="6">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16" s="6">
+        <v>0</v>
+      </c>
+      <c r="F16" s="6">
+        <v>0</v>
+      </c>
+      <c r="G16" s="9">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C18" s="6">
+        <v>107.34</v>
+      </c>
+      <c r="D18" s="1">
+        <v>91.88</v>
+      </c>
+      <c r="E18" s="6">
+        <v>64.11</v>
+      </c>
+      <c r="F18" s="6">
+        <v>45.38</v>
+      </c>
+      <c r="G18" s="9">
+        <v>45.38</v>
+      </c>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="G19" s="1">
+        <v>81.09</v>
+      </c>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1" t="str">
+        <f>C2</f>
+        <v>Base Case</v>
+      </c>
+      <c r="D21" s="1" t="str">
+        <f>D2</f>
+        <v>Radiant and Cooling Tower</v>
+      </c>
+      <c r="E21" s="1" t="str">
+        <f>E2</f>
+        <v>Improved Envelope</v>
+      </c>
+      <c r="F21" s="1" t="str">
+        <f>F2</f>
+        <v>As Designed</v>
+      </c>
+      <c r="G21" s="1" t="str">
+        <f>G2</f>
+        <v>PV</v>
+      </c>
+      <c r="H21" s="1">
+        <f>H2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="B22" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C22" s="10">
+        <f>C4*277.77</f>
+        <v>2549.9285999999997</v>
+      </c>
+      <c r="D22" s="10">
+        <f>D4*277.77</f>
+        <v>27.777000000000001</v>
+      </c>
+      <c r="E22" s="10">
+        <f>E4*277.77</f>
+        <v>36.110099999999996</v>
+      </c>
+      <c r="F22" s="10">
+        <f>F4*277.77</f>
+        <v>24.999299999999998</v>
+      </c>
+      <c r="G22" s="10">
+        <f>G4*277.77</f>
+        <v>24.999299999999998</v>
+      </c>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="B23" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C23" s="10">
+        <f>C3*277.777</f>
+        <v>13705.517180000001</v>
+      </c>
+      <c r="D23" s="10">
+        <f>D3*277.777</f>
+        <v>12430.52075</v>
+      </c>
+      <c r="E23" s="10">
+        <f>E3*277.777</f>
+        <v>4766.6533199999994</v>
+      </c>
+      <c r="F23" s="10">
+        <f>F3*277.777</f>
+        <v>7016.6470200000003</v>
+      </c>
+      <c r="G23" s="10">
+        <f>G3*277.777</f>
+        <v>7016.6470200000003</v>
+      </c>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="B24" s="1" t="str">
+        <f>B5</f>
+        <v>Interior Lighting</v>
+      </c>
+      <c r="C24" s="10">
+        <f t="shared" ref="C24:D24" si="0">277.777*C5</f>
+        <v>8005.5331399999995</v>
+      </c>
+      <c r="D24" s="10">
+        <f t="shared" si="0"/>
+        <v>8005.5331399999995</v>
+      </c>
+      <c r="E24" s="10">
+        <f t="shared" ref="E24:F24" si="1">277.777*E5</f>
+        <v>7988.8665200000005</v>
+      </c>
+      <c r="F24" s="10">
+        <f t="shared" si="1"/>
+        <v>3022.2137600000001</v>
+      </c>
+      <c r="G24" s="10">
+        <f t="shared" ref="G24" si="2">277.777*G5</f>
+        <v>3022.2137600000001</v>
+      </c>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="2:8">
+      <c r="B25" s="1" t="str">
+        <f>B6</f>
+        <v>Exterior Lighting</v>
+      </c>
+      <c r="C25" s="10">
+        <f t="shared" ref="C25:D25" si="3">277.777*C6</f>
+        <v>0</v>
+      </c>
+      <c r="D25" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E25" s="10">
+        <f t="shared" ref="E25:F25" si="4">277.777*E6</f>
+        <v>0</v>
+      </c>
+      <c r="F25" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="10">
+        <f t="shared" ref="G25" si="5">277.777*G6</f>
+        <v>0</v>
+      </c>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="2:8">
+      <c r="B26" s="1" t="str">
+        <f>B7</f>
+        <v>Interior Equipment</v>
+      </c>
+      <c r="C26" s="10">
+        <f t="shared" ref="C26:D26" si="6">277.777*C7</f>
+        <v>4977.7638400000005</v>
+      </c>
+      <c r="D26" s="10">
+        <f t="shared" si="6"/>
+        <v>4977.7638400000005</v>
+      </c>
+      <c r="E26" s="10">
+        <f t="shared" ref="E26:F26" si="7">277.777*E7</f>
+        <v>4977.7638400000005</v>
+      </c>
+      <c r="F26" s="10">
+        <f t="shared" si="7"/>
+        <v>2488.8819200000003</v>
+      </c>
+      <c r="G26" s="10">
+        <f t="shared" ref="G26" si="8">277.777*G7</f>
+        <v>2488.8819200000003</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8">
+      <c r="B27" s="1" t="str">
+        <f>B8</f>
+        <v>Exterior Equipment</v>
+      </c>
+      <c r="C27" s="10">
+        <f t="shared" ref="C27:D27" si="9">277.777*C8</f>
+        <v>0</v>
+      </c>
+      <c r="D27" s="10">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E27" s="10">
+        <f t="shared" ref="E27:F27" si="10">277.777*E8</f>
+        <v>0</v>
+      </c>
+      <c r="F27" s="10">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="10">
+        <f t="shared" ref="G27" si="11">277.777*G8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8">
+      <c r="B28" s="1" t="str">
+        <f>B9</f>
+        <v>Fans</v>
+      </c>
+      <c r="C28" s="10">
+        <f t="shared" ref="C28:D28" si="12">277.777*C9</f>
+        <v>574.99838999999997</v>
+      </c>
+      <c r="D28" s="10">
+        <f t="shared" si="12"/>
+        <v>8.3333099999999991</v>
+      </c>
+      <c r="E28" s="10">
+        <f t="shared" ref="E28:F28" si="13">277.777*E9</f>
+        <v>8.3333099999999991</v>
+      </c>
+      <c r="F28" s="10">
+        <f t="shared" si="13"/>
+        <v>5.5555399999999997</v>
+      </c>
+      <c r="G28" s="10">
+        <f t="shared" ref="G28" si="14">277.777*G9</f>
+        <v>5.5555399999999997</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8">
+      <c r="B29" s="1" t="str">
+        <f>B10</f>
+        <v>Pumps</v>
+      </c>
+      <c r="C29" s="10">
+        <f t="shared" ref="C29:D29" si="15">277.777*C10</f>
+        <v>0</v>
+      </c>
+      <c r="D29" s="10">
+        <f t="shared" si="15"/>
+        <v>72.222020000000001</v>
+      </c>
+      <c r="E29" s="10">
+        <f t="shared" ref="E29:F29" si="16">277.777*E10</f>
+        <v>27.777699999999999</v>
+      </c>
+      <c r="F29" s="10">
+        <f t="shared" si="16"/>
+        <v>44.444319999999998</v>
+      </c>
+      <c r="G29" s="10">
+        <f t="shared" ref="G29" si="17">277.777*G10</f>
+        <v>44.444319999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8">
+      <c r="B30" s="1" t="str">
+        <f>B11</f>
+        <v>Heat Rejection</v>
+      </c>
+      <c r="C30" s="10">
+        <f t="shared" ref="C30:D30" si="18">277.777*C11</f>
+        <v>0</v>
+      </c>
+      <c r="D30" s="10">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="E30" s="10">
+        <f t="shared" ref="E30:F30" si="19">277.777*E11</f>
+        <v>0</v>
+      </c>
+      <c r="F30" s="10">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="G30" s="10">
+        <f t="shared" ref="G30" si="20">277.777*G11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8">
+      <c r="B31" s="1" t="str">
+        <f>B12</f>
+        <v>Humidification</v>
+      </c>
+      <c r="C31" s="10">
+        <f t="shared" ref="C31:D31" si="21">277.777*C12</f>
+        <v>0</v>
+      </c>
+      <c r="D31" s="10">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E31" s="10">
+        <f t="shared" ref="E31:F31" si="22">277.777*E12</f>
+        <v>0</v>
+      </c>
+      <c r="F31" s="10">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="G31" s="10">
+        <f t="shared" ref="G31" si="23">277.777*G12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8">
+      <c r="B32" s="1" t="str">
+        <f>B13</f>
+        <v>Heat Recovery</v>
+      </c>
+      <c r="C32" s="10">
+        <f t="shared" ref="C32:D32" si="24">277.777*C13</f>
+        <v>0</v>
+      </c>
+      <c r="D32" s="10">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="E32" s="10">
+        <f t="shared" ref="E32:F32" si="25">277.777*E13</f>
+        <v>0</v>
+      </c>
+      <c r="F32" s="10">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="G32" s="10">
+        <f t="shared" ref="G32" si="26">277.777*G13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8">
+      <c r="B33" s="1" t="str">
+        <f>B14</f>
+        <v>Water Systems</v>
+      </c>
+      <c r="C33" s="10">
+        <f t="shared" ref="C33:D33" si="27">277.777*C14</f>
+        <v>0</v>
+      </c>
+      <c r="D33" s="10">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="E33" s="10">
+        <f t="shared" ref="E33:F33" si="28">277.777*E14</f>
+        <v>0</v>
+      </c>
+      <c r="F33" s="10">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="G33" s="10">
+        <f t="shared" ref="G33" si="29">277.777*G14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8">
+      <c r="B34" s="1" t="str">
+        <f>B15</f>
+        <v>Refrigeration</v>
+      </c>
+      <c r="C34" s="10">
+        <f t="shared" ref="C34:D34" si="30">277.777*C15</f>
+        <v>0</v>
+      </c>
+      <c r="D34" s="10">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="E34" s="10">
+        <f t="shared" ref="E34:F34" si="31">277.777*E15</f>
+        <v>0</v>
+      </c>
+      <c r="F34" s="10">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="G34" s="10">
+        <f t="shared" ref="G34" si="32">277.777*G15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8">
+      <c r="B35" s="1" t="str">
+        <f>B16</f>
+        <v>Generators</v>
+      </c>
+      <c r="C35" s="10">
+        <f t="shared" ref="C35:D35" si="33">277.777*C16</f>
+        <v>0</v>
+      </c>
+      <c r="D35" s="10">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="E35" s="10">
+        <f t="shared" ref="E35:F35" si="34">277.777*E16</f>
+        <v>0</v>
+      </c>
+      <c r="F35" s="10">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="G35" s="10">
+        <f t="shared" ref="G35" si="35">277.777*G16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8">
+      <c r="B36" s="1"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+    </row>
+    <row r="37" spans="2:8">
+      <c r="B37" s="6" t="str">
+        <f>B18</f>
+        <v>Total End Uses</v>
+      </c>
+      <c r="C37" s="10">
+        <f t="shared" ref="C37:D37" si="36">277.777*C18</f>
+        <v>29816.583179999998</v>
+      </c>
+      <c r="D37" s="10">
+        <f t="shared" si="36"/>
+        <v>25522.150759999997</v>
+      </c>
+      <c r="E37" s="10">
+        <f t="shared" ref="E37:G37" si="37">277.777*E18</f>
+        <v>17808.283469999998</v>
+      </c>
+      <c r="F37" s="10">
+        <f t="shared" si="37"/>
+        <v>12605.520259999999</v>
+      </c>
+      <c r="G37" s="10">
+        <f t="shared" si="37"/>
+        <v>12605.520259999999</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8">
+      <c r="B38" t="s">
+        <v>134</v>
+      </c>
+      <c r="C38" s="11">
+        <v>0</v>
+      </c>
+      <c r="D38" s="11">
+        <v>0</v>
+      </c>
+      <c r="E38" s="11">
+        <v>0</v>
+      </c>
+      <c r="F38" s="11">
+        <v>0</v>
+      </c>
+      <c r="G38" s="11">
+        <f>-G19*277.777</f>
+        <v>-22524.93693</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8">
+      <c r="G39" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8">
+      <c r="B43" s="7"/>
+    </row>
+    <row r="44" spans="2:8">
+      <c r="B44" s="1"/>
+    </row>
+    <row r="45" spans="2:8">
+      <c r="B45" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8">
+      <c r="B46" s="1"/>
+    </row>
+    <row r="47" spans="2:8" ht="45">
+      <c r="B47" s="5"/>
+      <c r="C47" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8">
+      <c r="B48" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C48" s="6">
+        <v>25.26</v>
+      </c>
+      <c r="D48" s="6">
+        <v>0</v>
+      </c>
+      <c r="E48" s="6">
+        <v>0</v>
+      </c>
+      <c r="F48" s="6">
+        <v>0</v>
+      </c>
+      <c r="G48" s="6">
+        <v>0</v>
+      </c>
+      <c r="H48" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8">
+      <c r="B49" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C49" s="6">
+        <v>0.09</v>
+      </c>
+      <c r="D49" s="6">
+        <v>0</v>
+      </c>
+      <c r="E49" s="6">
+        <v>0</v>
+      </c>
+      <c r="F49" s="6">
+        <v>0</v>
+      </c>
+      <c r="G49" s="6">
+        <v>0</v>
+      </c>
+      <c r="H49" s="6">
+        <v>9.18</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8">
+      <c r="B50" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C50" s="6">
+        <v>10.88</v>
+      </c>
+      <c r="D50" s="6">
+        <v>0</v>
+      </c>
+      <c r="E50" s="6">
+        <v>0</v>
+      </c>
+      <c r="F50" s="6">
+        <v>0</v>
+      </c>
+      <c r="G50" s="6">
+        <v>0</v>
+      </c>
+      <c r="H50" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8">
+      <c r="B51" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C51" s="6">
+        <v>0</v>
+      </c>
+      <c r="D51" s="6">
+        <v>0</v>
+      </c>
+      <c r="E51" s="6">
+        <v>0</v>
+      </c>
+      <c r="F51" s="6">
+        <v>0</v>
+      </c>
+      <c r="G51" s="6">
+        <v>0</v>
+      </c>
+      <c r="H51" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8">
+      <c r="B52" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C52" s="6">
+        <v>8.9600000000000009</v>
+      </c>
+      <c r="D52" s="6">
+        <v>0</v>
+      </c>
+      <c r="E52" s="6">
+        <v>0</v>
+      </c>
+      <c r="F52" s="6">
+        <v>0</v>
+      </c>
+      <c r="G52" s="6">
+        <v>0</v>
+      </c>
+      <c r="H52" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8">
+      <c r="B53" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C53" s="6">
+        <v>0</v>
+      </c>
+      <c r="D53" s="6">
+        <v>0</v>
+      </c>
+      <c r="E53" s="6">
+        <v>0</v>
+      </c>
+      <c r="F53" s="6">
+        <v>0</v>
+      </c>
+      <c r="G53" s="6">
+        <v>0</v>
+      </c>
+      <c r="H53" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8">
+      <c r="B54" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C54" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="D54" s="6">
+        <v>0</v>
+      </c>
+      <c r="E54" s="6">
+        <v>0</v>
+      </c>
+      <c r="F54" s="6">
+        <v>0</v>
+      </c>
+      <c r="G54" s="6">
+        <v>0</v>
+      </c>
+      <c r="H54" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8">
+      <c r="B55" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C55" s="6">
+        <v>0.16</v>
+      </c>
+      <c r="D55" s="6">
+        <v>0</v>
+      </c>
+      <c r="E55" s="6">
+        <v>0</v>
+      </c>
+      <c r="F55" s="6">
+        <v>0</v>
+      </c>
+      <c r="G55" s="6">
+        <v>0</v>
+      </c>
+      <c r="H55" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8">
+      <c r="B56" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C56" s="6">
+        <v>0</v>
+      </c>
+      <c r="D56" s="6">
+        <v>0</v>
+      </c>
+      <c r="E56" s="6">
+        <v>0</v>
+      </c>
+      <c r="F56" s="6">
+        <v>0</v>
+      </c>
+      <c r="G56" s="6">
+        <v>0</v>
+      </c>
+      <c r="H56" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8">
+      <c r="B57" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C57" s="6">
+        <v>0</v>
+      </c>
+      <c r="D57" s="6">
+        <v>0</v>
+      </c>
+      <c r="E57" s="6">
+        <v>0</v>
+      </c>
+      <c r="F57" s="6">
+        <v>0</v>
+      </c>
+      <c r="G57" s="6">
+        <v>0</v>
+      </c>
+      <c r="H57" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8">
+      <c r="B58" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C58" s="6">
+        <v>0</v>
+      </c>
+      <c r="D58" s="6">
+        <v>0</v>
+      </c>
+      <c r="E58" s="6">
+        <v>0</v>
+      </c>
+      <c r="F58" s="6">
+        <v>0</v>
+      </c>
+      <c r="G58" s="6">
+        <v>0</v>
+      </c>
+      <c r="H58" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8">
+      <c r="B59" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C59" s="6">
+        <v>0</v>
+      </c>
+      <c r="D59" s="6">
+        <v>0</v>
+      </c>
+      <c r="E59" s="6">
+        <v>0</v>
+      </c>
+      <c r="F59" s="6">
+        <v>0</v>
+      </c>
+      <c r="G59" s="6">
+        <v>0</v>
+      </c>
+      <c r="H59" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8">
+      <c r="B60" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C60" s="6">
+        <v>0</v>
+      </c>
+      <c r="D60" s="6">
+        <v>0</v>
+      </c>
+      <c r="E60" s="6">
+        <v>0</v>
+      </c>
+      <c r="F60" s="6">
+        <v>0</v>
+      </c>
+      <c r="G60" s="6">
+        <v>0</v>
+      </c>
+      <c r="H60" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8">
+      <c r="B61" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C61" s="6">
+        <v>0</v>
+      </c>
+      <c r="D61" s="6">
+        <v>0</v>
+      </c>
+      <c r="E61" s="6">
+        <v>0</v>
+      </c>
+      <c r="F61" s="6">
+        <v>0</v>
+      </c>
+      <c r="G61" s="6">
+        <v>0</v>
+      </c>
+      <c r="H61" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8">
+      <c r="B62" s="6"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="6"/>
+    </row>
+    <row r="63" spans="2:8">
+      <c r="B63" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C63" s="6">
+        <v>45.38</v>
+      </c>
+      <c r="D63" s="6">
+        <v>0</v>
+      </c>
+      <c r="E63" s="6">
+        <v>0</v>
+      </c>
+      <c r="F63" s="6">
+        <v>0</v>
+      </c>
+      <c r="G63" s="6">
+        <v>0</v>
+      </c>
+      <c r="H63" s="6">
+        <v>9.18</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8">
+      <c r="B64" s="8" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr showInkAnnotation="0" hidePivotFieldList="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="11820" yWindow="5460" windowWidth="31460" windowHeight="20540" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="27640" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="construction-pivot" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="137">
   <si>
     <t>Construction</t>
   </si>
@@ -445,6 +445,9 @@
   <si>
     <t>22MWh = 1.8MWh/month</t>
   </si>
+  <si>
+    <t>Percent Savings</t>
+  </si>
 </sst>
 </file>
 
@@ -452,7 +455,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="171" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -548,7 +551,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="128">
+  <cellStyleXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -677,8 +680,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -697,10 +704,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="0" xfId="31" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="31" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="31" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="31" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="128">
+  <cellStyles count="132">
     <cellStyle name="Comma" xfId="31" builtinId="3"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -765,6 +773,8 @@
     <cellStyle name="Followed Hyperlink" xfId="123" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="125" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="127" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="129" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="131" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -828,6 +838,8 @@
     <cellStyle name="Hyperlink" xfId="122" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="124" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="126" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="128" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="130" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -865,7 +877,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -981,11 +992,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2140959720"/>
-        <c:axId val="2140962760"/>
+        <c:axId val="2124815656"/>
+        <c:axId val="2124818664"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2140959720"/>
+        <c:axId val="2124815656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -994,7 +1005,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2140962760"/>
+        <c:crossAx val="2124818664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1002,7 +1013,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2140962760"/>
+        <c:axId val="2124818664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1030,14 +1041,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2140959720"/>
+        <c:crossAx val="2124815656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1621,11 +1631,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2147082872"/>
-        <c:axId val="-2147481576"/>
+        <c:axId val="2103734424"/>
+        <c:axId val="2103731464"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2147082872"/>
+        <c:axId val="2103734424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1634,7 +1644,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2147481576"/>
+        <c:crossAx val="2103731464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1642,7 +1652,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2147481576"/>
+        <c:axId val="2103731464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1677,7 +1687,1116 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2147082872"/>
+        <c:crossAx val="2103734424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>comparison!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cooling</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>comparison!$C$21:$G$21</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Base Case</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Radiant and Cooling Tower</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Improved Envelope</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>As Designed</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>PV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>comparison!$C$22:$G$22</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2549.9286</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27.777</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36.1101</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24.9993</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24.9993</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>comparison!$B$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Heating</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>comparison!$C$21:$G$21</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Base Case</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Radiant and Cooling Tower</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Improved Envelope</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>As Designed</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>PV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>comparison!$C$23:$G$23</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>13705.51718</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12430.52075</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4766.65332</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7016.64702</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7016.64702</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>comparison!$B$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Interior Lighting</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>comparison!$C$21:$G$21</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Base Case</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Radiant and Cooling Tower</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Improved Envelope</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>As Designed</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>PV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>comparison!$C$24:$G$24</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8005.53314</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8005.53314</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7988.86652</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3022.21376</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3022.21376</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>comparison!$B$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Exterior Lighting</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>comparison!$C$21:$G$21</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Base Case</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Radiant and Cooling Tower</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Improved Envelope</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>As Designed</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>PV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>comparison!$C$25:$G$25</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>comparison!$B$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Interior Equipment</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>comparison!$C$21:$G$21</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Base Case</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Radiant and Cooling Tower</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Improved Envelope</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>As Designed</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>PV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>comparison!$C$26:$G$26</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4977.763840000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4977.763840000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4977.763840000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2488.88192</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2488.88192</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>comparison!$B$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Exterior Equipment</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>comparison!$C$21:$G$21</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Base Case</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Radiant and Cooling Tower</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Improved Envelope</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>As Designed</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>PV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>comparison!$C$27:$G$27</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>comparison!$B$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fans</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>comparison!$C$21:$G$21</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Base Case</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Radiant and Cooling Tower</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Improved Envelope</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>As Designed</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>PV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>comparison!$C$28:$G$28</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>574.99839</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.33331</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.33331</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.55554</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.55554</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>comparison!$B$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pumps</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>comparison!$C$21:$G$21</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Base Case</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Radiant and Cooling Tower</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Improved Envelope</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>As Designed</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>PV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>comparison!$C$29:$G$29</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72.22202</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27.7777</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44.44432</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44.44432</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:v>PV</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>comparison!$C$38:$G$38</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-22524.93693</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="2133750520"/>
+        <c:axId val="2133753464"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2133750520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2133753464"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2133753464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Annual</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Energy (kWh)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2133750520"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>comparison!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cooling</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(comparison!$C$21,comparison!$F$21)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Base Case</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>As Designed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(comparison!$C$22,comparison!$F$22)</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2549.9286</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.9993</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>comparison!$B$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Heating</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(comparison!$C$21,comparison!$F$21)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Base Case</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>As Designed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(comparison!$C$23,comparison!$F$23)</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>13705.51718</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7016.64702</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>comparison!$B$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Interior Lighting</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(comparison!$C$21,comparison!$F$21)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Base Case</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>As Designed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(comparison!$C$24,comparison!$F$24)</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>8005.53314</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3022.21376</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>comparison!$B$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Exterior Lighting</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(comparison!$C$21,comparison!$F$21)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Base Case</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>As Designed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(comparison!$C$25,comparison!$F$25)</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>comparison!$B$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Interior Equipment</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(comparison!$C$21,comparison!$F$21)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Base Case</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>As Designed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(comparison!$C$26,comparison!$F$26)</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>4977.763840000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2488.88192</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>comparison!$B$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Exterior Equipment</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(comparison!$C$21,comparison!$F$21)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Base Case</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>As Designed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(comparison!$C$27,comparison!$F$27)</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>comparison!$B$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fans</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(comparison!$C$21,comparison!$F$21)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Base Case</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>As Designed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(comparison!$C$28,comparison!$F$28)</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>574.99839</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.55554</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>comparison!$B$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pumps</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(comparison!$C$21,comparison!$F$21)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Base Case</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>As Designed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(comparison!$C$29,comparison!$F$29)</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44.44432</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="2137589432"/>
+        <c:axId val="2137602072"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2137589432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2137602072"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2137602072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Annual Energy (kWh)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2137589432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1761,6 +2880,68 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4600,8 +5781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4980,27 +6161,27 @@
     <row r="21" spans="2:8">
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="str">
-        <f>C2</f>
+        <f t="shared" ref="C21:H21" si="0">C2</f>
         <v>Base Case</v>
       </c>
       <c r="D21" s="1" t="str">
-        <f>D2</f>
+        <f t="shared" si="0"/>
         <v>Radiant and Cooling Tower</v>
       </c>
       <c r="E21" s="1" t="str">
-        <f>E2</f>
+        <f t="shared" si="0"/>
         <v>Improved Envelope</v>
       </c>
       <c r="F21" s="1" t="str">
-        <f>F2</f>
+        <f t="shared" si="0"/>
         <v>As Designed</v>
       </c>
       <c r="G21" s="1" t="str">
-        <f>G2</f>
+        <f t="shared" si="0"/>
         <v>PV</v>
       </c>
       <c r="H21" s="1">
-        <f>H2</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5058,315 +6239,315 @@
     </row>
     <row r="24" spans="2:8">
       <c r="B24" s="1" t="str">
-        <f>B5</f>
+        <f t="shared" ref="B24:B35" si="1">B5</f>
         <v>Interior Lighting</v>
       </c>
       <c r="C24" s="10">
-        <f t="shared" ref="C24:D24" si="0">277.777*C5</f>
+        <f t="shared" ref="C24:D24" si="2">277.777*C5</f>
         <v>8005.5331399999995</v>
       </c>
       <c r="D24" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8005.5331399999995</v>
       </c>
       <c r="E24" s="10">
-        <f t="shared" ref="E24:F24" si="1">277.777*E5</f>
+        <f t="shared" ref="E24:F24" si="3">277.777*E5</f>
         <v>7988.8665200000005</v>
       </c>
       <c r="F24" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3022.2137600000001</v>
       </c>
       <c r="G24" s="10">
-        <f t="shared" ref="G24" si="2">277.777*G5</f>
+        <f t="shared" ref="G24" si="4">277.777*G5</f>
         <v>3022.2137600000001</v>
       </c>
       <c r="H24" s="1"/>
     </row>
     <row r="25" spans="2:8">
       <c r="B25" s="1" t="str">
-        <f>B6</f>
+        <f t="shared" si="1"/>
         <v>Exterior Lighting</v>
       </c>
       <c r="C25" s="10">
-        <f t="shared" ref="C25:D25" si="3">277.777*C6</f>
+        <f t="shared" ref="C25:D25" si="5">277.777*C6</f>
         <v>0</v>
       </c>
       <c r="D25" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E25" s="10">
-        <f t="shared" ref="E25:F25" si="4">277.777*E6</f>
+        <f t="shared" ref="E25:F25" si="6">277.777*E6</f>
         <v>0</v>
       </c>
       <c r="F25" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G25" s="10">
-        <f t="shared" ref="G25" si="5">277.777*G6</f>
+        <f t="shared" ref="G25" si="7">277.777*G6</f>
         <v>0</v>
       </c>
       <c r="H25" s="1"/>
     </row>
     <row r="26" spans="2:8">
       <c r="B26" s="1" t="str">
-        <f>B7</f>
+        <f t="shared" si="1"/>
         <v>Interior Equipment</v>
       </c>
       <c r="C26" s="10">
-        <f t="shared" ref="C26:D26" si="6">277.777*C7</f>
+        <f t="shared" ref="C26:D26" si="8">277.777*C7</f>
         <v>4977.7638400000005</v>
       </c>
       <c r="D26" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4977.7638400000005</v>
       </c>
       <c r="E26" s="10">
-        <f t="shared" ref="E26:F26" si="7">277.777*E7</f>
+        <f t="shared" ref="E26:F26" si="9">277.777*E7</f>
         <v>4977.7638400000005</v>
       </c>
       <c r="F26" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2488.8819200000003</v>
       </c>
       <c r="G26" s="10">
-        <f t="shared" ref="G26" si="8">277.777*G7</f>
+        <f t="shared" ref="G26" si="10">277.777*G7</f>
         <v>2488.8819200000003</v>
       </c>
     </row>
     <row r="27" spans="2:8">
       <c r="B27" s="1" t="str">
-        <f>B8</f>
+        <f t="shared" si="1"/>
         <v>Exterior Equipment</v>
       </c>
       <c r="C27" s="10">
-        <f t="shared" ref="C27:D27" si="9">277.777*C8</f>
+        <f t="shared" ref="C27:D27" si="11">277.777*C8</f>
         <v>0</v>
       </c>
       <c r="D27" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E27" s="10">
-        <f t="shared" ref="E27:F27" si="10">277.777*E8</f>
+        <f t="shared" ref="E27:F27" si="12">277.777*E8</f>
         <v>0</v>
       </c>
       <c r="F27" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G27" s="10">
-        <f t="shared" ref="G27" si="11">277.777*G8</f>
+        <f t="shared" ref="G27" si="13">277.777*G8</f>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="2:8">
       <c r="B28" s="1" t="str">
-        <f>B9</f>
+        <f t="shared" si="1"/>
         <v>Fans</v>
       </c>
       <c r="C28" s="10">
-        <f t="shared" ref="C28:D28" si="12">277.777*C9</f>
+        <f t="shared" ref="C28:D28" si="14">277.777*C9</f>
         <v>574.99838999999997</v>
       </c>
       <c r="D28" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>8.3333099999999991</v>
       </c>
       <c r="E28" s="10">
-        <f t="shared" ref="E28:F28" si="13">277.777*E9</f>
+        <f t="shared" ref="E28:F28" si="15">277.777*E9</f>
         <v>8.3333099999999991</v>
       </c>
       <c r="F28" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5.5555399999999997</v>
       </c>
       <c r="G28" s="10">
-        <f t="shared" ref="G28" si="14">277.777*G9</f>
+        <f t="shared" ref="G28" si="16">277.777*G9</f>
         <v>5.5555399999999997</v>
       </c>
     </row>
     <row r="29" spans="2:8">
       <c r="B29" s="1" t="str">
-        <f>B10</f>
+        <f t="shared" si="1"/>
         <v>Pumps</v>
       </c>
       <c r="C29" s="10">
-        <f t="shared" ref="C29:D29" si="15">277.777*C10</f>
+        <f t="shared" ref="C29:D29" si="17">277.777*C10</f>
         <v>0</v>
       </c>
       <c r="D29" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>72.222020000000001</v>
       </c>
       <c r="E29" s="10">
-        <f t="shared" ref="E29:F29" si="16">277.777*E10</f>
+        <f t="shared" ref="E29:F29" si="18">277.777*E10</f>
         <v>27.777699999999999</v>
       </c>
       <c r="F29" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>44.444319999999998</v>
       </c>
       <c r="G29" s="10">
-        <f t="shared" ref="G29" si="17">277.777*G10</f>
+        <f t="shared" ref="G29" si="19">277.777*G10</f>
         <v>44.444319999999998</v>
       </c>
     </row>
     <row r="30" spans="2:8">
       <c r="B30" s="1" t="str">
-        <f>B11</f>
+        <f t="shared" si="1"/>
         <v>Heat Rejection</v>
       </c>
       <c r="C30" s="10">
-        <f t="shared" ref="C30:D30" si="18">277.777*C11</f>
+        <f t="shared" ref="C30:D30" si="20">277.777*C11</f>
         <v>0</v>
       </c>
       <c r="D30" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E30" s="10">
-        <f t="shared" ref="E30:F30" si="19">277.777*E11</f>
+        <f t="shared" ref="E30:F30" si="21">277.777*E11</f>
         <v>0</v>
       </c>
       <c r="F30" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="G30" s="10">
-        <f t="shared" ref="G30" si="20">277.777*G11</f>
+        <f t="shared" ref="G30" si="22">277.777*G11</f>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="2:8">
       <c r="B31" s="1" t="str">
-        <f>B12</f>
+        <f t="shared" si="1"/>
         <v>Humidification</v>
       </c>
       <c r="C31" s="10">
-        <f t="shared" ref="C31:D31" si="21">277.777*C12</f>
+        <f t="shared" ref="C31:D31" si="23">277.777*C12</f>
         <v>0</v>
       </c>
       <c r="D31" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="E31" s="10">
-        <f t="shared" ref="E31:F31" si="22">277.777*E12</f>
+        <f t="shared" ref="E31:F31" si="24">277.777*E12</f>
         <v>0</v>
       </c>
       <c r="F31" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="G31" s="10">
-        <f t="shared" ref="G31" si="23">277.777*G12</f>
+        <f t="shared" ref="G31" si="25">277.777*G12</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="2:8">
       <c r="B32" s="1" t="str">
-        <f>B13</f>
+        <f t="shared" si="1"/>
         <v>Heat Recovery</v>
       </c>
       <c r="C32" s="10">
-        <f t="shared" ref="C32:D32" si="24">277.777*C13</f>
+        <f t="shared" ref="C32:D32" si="26">277.777*C13</f>
         <v>0</v>
       </c>
       <c r="D32" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="E32" s="10">
-        <f t="shared" ref="E32:F32" si="25">277.777*E13</f>
+        <f t="shared" ref="E32:F32" si="27">277.777*E13</f>
         <v>0</v>
       </c>
       <c r="F32" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="G32" s="10">
-        <f t="shared" ref="G32" si="26">277.777*G13</f>
+        <f t="shared" ref="G32" si="28">277.777*G13</f>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="2:8">
       <c r="B33" s="1" t="str">
-        <f>B14</f>
+        <f t="shared" si="1"/>
         <v>Water Systems</v>
       </c>
       <c r="C33" s="10">
-        <f t="shared" ref="C33:D33" si="27">277.777*C14</f>
+        <f t="shared" ref="C33:D33" si="29">277.777*C14</f>
         <v>0</v>
       </c>
       <c r="D33" s="10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="E33" s="10">
-        <f t="shared" ref="E33:F33" si="28">277.777*E14</f>
+        <f t="shared" ref="E33:F33" si="30">277.777*E14</f>
         <v>0</v>
       </c>
       <c r="F33" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="G33" s="10">
-        <f t="shared" ref="G33" si="29">277.777*G14</f>
+        <f t="shared" ref="G33" si="31">277.777*G14</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="2:8">
       <c r="B34" s="1" t="str">
-        <f>B15</f>
+        <f t="shared" si="1"/>
         <v>Refrigeration</v>
       </c>
       <c r="C34" s="10">
-        <f t="shared" ref="C34:D34" si="30">277.777*C15</f>
+        <f t="shared" ref="C34:D34" si="32">277.777*C15</f>
         <v>0</v>
       </c>
       <c r="D34" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="E34" s="10">
-        <f t="shared" ref="E34:F34" si="31">277.777*E15</f>
+        <f t="shared" ref="E34:F34" si="33">277.777*E15</f>
         <v>0</v>
       </c>
       <c r="F34" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="G34" s="10">
-        <f t="shared" ref="G34" si="32">277.777*G15</f>
+        <f t="shared" ref="G34" si="34">277.777*G15</f>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="2:8">
       <c r="B35" s="1" t="str">
-        <f>B16</f>
+        <f t="shared" si="1"/>
         <v>Generators</v>
       </c>
       <c r="C35" s="10">
-        <f t="shared" ref="C35:D35" si="33">277.777*C16</f>
+        <f t="shared" ref="C35:D35" si="35">277.777*C16</f>
         <v>0</v>
       </c>
       <c r="D35" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="E35" s="10">
-        <f t="shared" ref="E35:F35" si="34">277.777*E16</f>
+        <f t="shared" ref="E35:F35" si="36">277.777*E16</f>
         <v>0</v>
       </c>
       <c r="F35" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="G35" s="10">
-        <f t="shared" ref="G35" si="35">277.777*G16</f>
+        <f t="shared" ref="G35" si="37">277.777*G16</f>
         <v>0</v>
       </c>
     </row>
@@ -5384,23 +6565,23 @@
         <v>Total End Uses</v>
       </c>
       <c r="C37" s="10">
-        <f t="shared" ref="C37:D37" si="36">277.777*C18</f>
+        <f t="shared" ref="C37:D37" si="38">277.777*C18</f>
         <v>29816.583179999998</v>
       </c>
       <c r="D37" s="10">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>25522.150759999997</v>
       </c>
       <c r="E37" s="10">
-        <f t="shared" ref="E37:G37" si="37">277.777*E18</f>
+        <f t="shared" ref="E37:G37" si="39">277.777*E18</f>
         <v>17808.283469999998</v>
       </c>
       <c r="F37" s="10">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>12605.520259999999</v>
       </c>
       <c r="G37" s="10">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>12605.520259999999</v>
       </c>
     </row>
@@ -5428,6 +6609,19 @@
     <row r="39" spans="2:8">
       <c r="G39" t="s">
         <v>135</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8">
+      <c r="B41" t="s">
+        <v>136</v>
+      </c>
+      <c r="F41" s="12">
+        <f>($C$37-F37)/$C$37</f>
+        <v>0.57723122787404502</v>
+      </c>
+      <c r="G41" s="12">
+        <f>($C$37-G38)/$C$37</f>
+        <v>1.7554499720514254</v>
       </c>
     </row>
     <row r="43" spans="2:8">
